--- a/data/trans_bre/KIDM_C_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 6,7</t>
+          <t>-6,86; 6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 11,41</t>
+          <t>-9,52; 12,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 2,21</t>
+          <t>-22,09; 3,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 248,97</t>
+          <t>-61,88; 258,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-89,45; 53,24</t>
+          <t>-100,0; 57,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,79</t>
+          <t>-1,59; 5,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 11,53</t>
+          <t>0,17; 11,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,84</t>
+          <t>-4,84; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 7,69</t>
+          <t>0,16; 7,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 183,88</t>
+          <t>-31,75; 203,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 116,21</t>
+          <t>-0,02; 119,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 56,15</t>
+          <t>-41,68; 54,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 740,63</t>
+          <t>-16,95; 651,8</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 7,83</t>
+          <t>-5,67; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 6,73</t>
+          <t>-11,81; 6,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 9,95</t>
+          <t>-5,78; 10,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 0,0</t>
+          <t>-6,01; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 730,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 104,54</t>
+          <t>-68,3; 116,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,46; 211,69</t>
+          <t>-53,59; 205,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,37</t>
+          <t>-1,59; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,1</t>
+          <t>-0,61; 7,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,72</t>
+          <t>-4,57; 3,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,1</t>
+          <t>-0,39; 5,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 152,96</t>
+          <t>-32,37; 134,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 81,36</t>
+          <t>-5,94; 76,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 34,4</t>
+          <t>-38,22; 37,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 532,77</t>
+          <t>-26,93; 573,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_C_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 6,68</t>
+          <t>-6,06; 6,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 12,3</t>
+          <t>-9,42; 12,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 3,32</t>
+          <t>-22,85; 3,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,88; 258,66</t>
+          <t>-60,87; 281,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,16</t>
+          <t>-90,28; 62,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>145,6%</t>
+          <t>119,36%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,26</t>
+          <t>-1,86; 5,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 11,7</t>
+          <t>0,45; 10,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,87</t>
+          <t>-4,87; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 7,67</t>
+          <t>-0,92; 6,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 203,63</t>
+          <t>-33,7; 193,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 119,07</t>
+          <t>3,0; 118,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 54,77</t>
+          <t>-41,78; 51,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 651,8</t>
+          <t>-34,44; 696,08</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 6,97</t>
+          <t>-5,54; 7,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 6,96</t>
+          <t>-12,11; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 10,29</t>
+          <t>-6,25; 9,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,0</t>
+          <t>-5,99; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 730,12</t>
+          <t>-100,0; 916,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,3; 116,75</t>
+          <t>-71,95; 108,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,59; 205,82</t>
+          <t>-53,02; 178,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>113,55%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,97</t>
+          <t>-1,23; 4,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,62</t>
+          <t>-0,82; 7,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,0</t>
+          <t>-4,68; 2,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,17</t>
+          <t>-0,94; 5,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 134,66</t>
+          <t>-25,9; 139,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 76,58</t>
+          <t>-7,65; 77,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 37,08</t>
+          <t>-38,98; 36,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 573,56</t>
+          <t>-36,27; 561,79</t>
         </is>
       </c>
     </row>
